--- a/2_Supplemental_Material/Section_4_Methodology/2_Aggregated_optimization_rules.xlsx
+++ b/2_Supplemental_Material/Section_4_Methodology/2_Aggregated_optimization_rules.xlsx
@@ -137,8 +137,7 @@
     <t>Add a keyword</t>
   </si>
   <si>
-    <t>C013
-C014</t>
+    <t>C013</t>
   </si>
   <si>
     <t>LazyMatchedRule returns ATL2::LazyMatchedRule:
@@ -1005,8 +1004,7 @@
   <si>
     <t>C048
 C049
-C050
-C070</t>
+C050</t>
   </si>
   <si>
     <r>
@@ -1335,8 +1333,7 @@
     <t>to lower case | to upper case; either per rule or general</t>
   </si>
   <si>
-    <t>C066
-C067</t>
+    <t>C066</t>
   </si>
   <si>
     <r>
@@ -1883,8 +1880,7 @@
   </si>
   <si>
     <t>C002
-C003
-C004
+C001
 C052</t>
   </si>
   <si>
